--- a/Documentation/Tables, Charts, Etc.xlsx
+++ b/Documentation/Tables, Charts, Etc.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Engines" sheetId="1" r:id="rId1"/>
     <sheet name="Enemies" sheetId="2" r:id="rId2"/>
     <sheet name="NPCs" sheetId="3" r:id="rId3"/>
+    <sheet name="Weapons" sheetId="4" r:id="rId4"/>
+    <sheet name="Items" sheetId="5" r:id="rId5"/>
+    <sheet name="Main Req" sheetId="6" r:id="rId6"/>
+    <sheet name="Sec Req" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="139">
   <si>
     <t>Games</t>
   </si>
@@ -330,6 +334,115 @@
   </si>
   <si>
     <t>Bipedal, Walk/Run</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>Number of Upgrades</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Original Scope</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Reasons for Change</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realistic, key buildings with interiors and/or exteriors, Qu’Appelle Valley area
+</t>
+  </si>
+  <si>
+    <t>Non-Playable Characters (NPCs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two main </t>
+  </si>
+  <si>
+    <t>Dynamic Menu</t>
+  </si>
+  <si>
+    <t>Multiple Items</t>
+  </si>
+  <si>
+    <t>Upgradable Items</t>
+  </si>
+  <si>
+    <t>Save/Load Game</t>
+  </si>
+  <si>
+    <t>Future Improvements</t>
+  </si>
+  <si>
+    <t>Non-Successful</t>
+  </si>
+  <si>
+    <t>Start to Finish Aspects</t>
+  </si>
+  <si>
+    <t>Collectables</t>
+  </si>
+  <si>
+    <t>Side Objectives</t>
+  </si>
+  <si>
+    <t>Trophies, Achievements, etc.</t>
+  </si>
+  <si>
+    <t>Easter Eggs &amp; References</t>
+  </si>
+  <si>
+    <t>Multiplatform</t>
+  </si>
+  <si>
+    <t>Name Game+</t>
+  </si>
+  <si>
+    <t>Music &amp; Sound</t>
+  </si>
+  <si>
+    <t>Voice Acting</t>
+  </si>
+  <si>
+    <t>More Items</t>
+  </si>
+  <si>
+    <t>More Details</t>
+  </si>
+  <si>
+    <t>Not Implemented</t>
   </si>
 </sst>
 </file>
@@ -369,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +498,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -459,8 +584,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,8 +614,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -495,6 +643,15 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -517,6 +674,15 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1055,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H14"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1067,9 +1233,18 @@
     <col min="3" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="40" customHeight="1">
+    <row r="2" spans="2:9">
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="40" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1088,8 +1263,11 @@
       <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="50" customHeight="1">
+      <c r="I4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="50" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1109,8 +1287,9 @@
         <v>60</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" ht="50" customHeight="1">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="50" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1130,8 +1309,9 @@
         <v>67</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="50" customHeight="1">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="50" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -1147,8 +1327,9 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="50" customHeight="1">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="50" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1162,8 +1343,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="50" customHeight="1">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="50" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1177,8 +1359,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="50" customHeight="1">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="50" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1190,8 +1373,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="50" customHeight="1">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="50" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1211,8 +1395,9 @@
         <v>60</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="50" customHeight="1">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="50" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1230,8 +1415,9 @@
         <v>60</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="50" customHeight="1">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="50" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1247,8 +1433,9 @@
         <v>82</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" ht="50" customHeight="1">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" ht="50" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1266,6 +1453,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1280,19 +1468,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="40" customHeight="1">
+    <row r="2" spans="2:6">
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="40" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1302,8 +1499,11 @@
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="55" customHeight="1">
+      <c r="F4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="55" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
@@ -1316,8 +1516,11 @@
       <c r="E5" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="55" customHeight="1">
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="55" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>99</v>
       </c>
@@ -1330,8 +1533,11 @@
       <c r="E6" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="55" customHeight="1">
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="55" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
@@ -1344,8 +1550,11 @@
       <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="55" customHeight="1">
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="55" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
@@ -1358,8 +1567,11 @@
       <c r="E8" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="55" customHeight="1">
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="55" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>90</v>
       </c>
@@ -1368,6 +1580,630 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="50" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="50" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="50" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="50" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="50" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="50" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="50" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="50" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="50" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="50" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40" customHeight="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="50" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="50" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="50" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="50" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="50" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="50" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="50" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="50" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="50" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="50" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="40" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="50" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="50" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="50" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="50" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="50" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="50" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="50" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="50" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="50" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="G2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="40" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="50" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="50" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="50" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="50" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="50" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="50" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="50" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="50" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
